--- a/PredictiveMaintenanceService/test.xlsx
+++ b/PredictiveMaintenanceService/test.xlsx
@@ -477,30 +477,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1056884</v>
+        <v>1632209</v>
       </c>
       <c r="B2" t="n">
-        <v>1700735973.25</v>
+        <v>1700747727.09</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-11-23 10:39:33.249999</t>
+          <t>2023-11-23 13:55:27.089999</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
         <v>4.44</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
         <v>799</v>
@@ -508,148 +508,148 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>703102</v>
+        <v>2222936</v>
       </c>
       <c r="B3" t="n">
-        <v>1700732384.47</v>
+        <v>1700754550.96</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-11-23 09:39:44.470000</t>
+          <t>2023-11-23 15:49:10.960000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.44</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>1501</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1209561</v>
+        <v>1078749</v>
       </c>
       <c r="B4" t="n">
-        <v>1700737502.39</v>
+        <v>1700736192.18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-11-23 11:05:02.390000</t>
+          <t>2023-11-23 10:43:12.180000</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>280</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
         <v>84</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>4.96</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>799</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1063030</v>
+        <v>1672540</v>
       </c>
       <c r="B5" t="n">
-        <v>1700736034.7</v>
+        <v>1700748167.24</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-11-23 10:40:34.700000</t>
+          <t>2023-11-23 14:02:47.240000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>4.44</v>
+        <v>4.96</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>799</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>945036</v>
+        <v>1134127</v>
       </c>
       <c r="B6" t="n">
-        <v>1700734840.16</v>
+        <v>1700736746.18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-11-23 10:20:40.160000</t>
+          <t>2023-11-23 10:52:26.180000</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>4.88</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>1525</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1307853</v>
+        <v>1821783</v>
       </c>
       <c r="B7" t="n">
-        <v>1700738485.12</v>
+        <v>1700749724.68</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-11-23 11:21:25.120000</t>
+          <t>2023-11-23 14:28:44.680000</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>280</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
         <v>4.4</v>
@@ -658,131 +658,131 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2065217</v>
+        <v>1809968</v>
       </c>
       <c r="B8" t="n">
-        <v>1700752210.65</v>
+        <v>1700749543.01</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-11-23 15:10:10.650000</t>
+          <t>2023-11-23 14:25:43.009999</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>280</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
         <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1297427</v>
+        <v>1660958</v>
       </c>
       <c r="B9" t="n">
-        <v>1700738380.89</v>
+        <v>1700748051.45</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-11-23 11:19:40.890000</t>
+          <t>2023-11-23 14:00:51.450000</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>280</v>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.96</v>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>800</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2063191</v>
+        <v>996038</v>
       </c>
       <c r="B10" t="n">
-        <v>1700752190.39</v>
+        <v>1700735364.92</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023-11-23 15:09:50.390000</t>
+          <t>2023-11-23 10:29:24.920000</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>280</v>
       </c>
       <c r="E10" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F10" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.44</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1204666</v>
+        <v>947816</v>
       </c>
       <c r="B11" t="n">
-        <v>1700737453.45</v>
+        <v>1700734867.95</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023-11-23 11:04:13.450000</t>
+          <t>2023-11-23 10:21:07.950000</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E11" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G11" t="n">
         <v>4.96</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
